--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:H359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10437,6 +10437,246 @@
       <c r="H351" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>333.1033333333333</v>
+      </c>
+      <c r="C352" t="n">
+        <v>340.8026315789473</v>
+      </c>
+      <c r="D352" t="n">
+        <v>351.1705882352941</v>
+      </c>
+      <c r="E352" t="n">
+        <v>350.81</v>
+      </c>
+      <c r="F352" t="n">
+        <v>351.0457142857143</v>
+      </c>
+      <c r="G352" t="n">
+        <v>357.3133333333333</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>342.9166666666667</v>
+      </c>
+      <c r="C353" t="n">
+        <v>353.1468421052632</v>
+      </c>
+      <c r="D353" t="n">
+        <v>347.6247058823529</v>
+      </c>
+      <c r="E353" t="n">
+        <v>356.21</v>
+      </c>
+      <c r="F353" t="n">
+        <v>365.6171428571428</v>
+      </c>
+      <c r="G353" t="n">
+        <v>358.3466666666666</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>328.1533333333333</v>
+      </c>
+      <c r="C354" t="n">
+        <v>341.8194736842105</v>
+      </c>
+      <c r="D354" t="n">
+        <v>351.7588235294118</v>
+      </c>
+      <c r="E354" t="n">
+        <v>348.36</v>
+      </c>
+      <c r="F354" t="n">
+        <v>349.5014285714286</v>
+      </c>
+      <c r="G354" t="n">
+        <v>355.0633333333333</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>325.8933333333333</v>
+      </c>
+      <c r="C355" t="n">
+        <v>331.6647368421052</v>
+      </c>
+      <c r="D355" t="n">
+        <v>338.3870588235294</v>
+      </c>
+      <c r="E355" t="n">
+        <v>345.47</v>
+      </c>
+      <c r="F355" t="n">
+        <v>340.3228571428572</v>
+      </c>
+      <c r="G355" t="n">
+        <v>342.5733333333333</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>341.7566666666667</v>
+      </c>
+      <c r="C356" t="n">
+        <v>349.9515789473684</v>
+      </c>
+      <c r="D356" t="n">
+        <v>346.8464705882353</v>
+      </c>
+      <c r="E356" t="n">
+        <v>355.32</v>
+      </c>
+      <c r="F356" t="n">
+        <v>360.5357142857143</v>
+      </c>
+      <c r="G356" t="n">
+        <v>367.1266666666667</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>335.7333333333333</v>
+      </c>
+      <c r="C357" t="n">
+        <v>347.1131578947368</v>
+      </c>
+      <c r="D357" t="n">
+        <v>345.3670588235294</v>
+      </c>
+      <c r="E357" t="n">
+        <v>351.64</v>
+      </c>
+      <c r="F357" t="n">
+        <v>340.7385714285714</v>
+      </c>
+      <c r="G357" t="n">
+        <v>339.1433333333333</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>330.7033333333333</v>
+      </c>
+      <c r="C358" t="n">
+        <v>333.6552631578948</v>
+      </c>
+      <c r="D358" t="n">
+        <v>337.1776470588235</v>
+      </c>
+      <c r="E358" t="n">
+        <v>347.25</v>
+      </c>
+      <c r="F358" t="n">
+        <v>337.5928571428572</v>
+      </c>
+      <c r="G358" t="n">
+        <v>342.8533333333333</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>329.02</v>
+      </c>
+      <c r="C359" t="n">
+        <v>340.068947368421</v>
+      </c>
+      <c r="D359" t="n">
+        <v>337.5888235294117</v>
+      </c>
+      <c r="E359" t="n">
+        <v>350.03</v>
+      </c>
+      <c r="F359" t="n">
+        <v>344.9</v>
+      </c>
+      <c r="G359" t="n">
+        <v>345.25</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10451,7 +10691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14109,6 +14349,86 @@
       </c>
       <c r="B365" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -14277,28 +14597,28 @@
         <v>0.0862</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3028541448343827</v>
+        <v>0.3187554879254842</v>
       </c>
       <c r="J2" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03565825321770522</v>
+        <v>0.04103808046417545</v>
       </c>
       <c r="M2" t="n">
-        <v>8.675511534859281</v>
+        <v>8.575939862118355</v>
       </c>
       <c r="N2" t="n">
-        <v>131.0084354508062</v>
+        <v>128.8072432781111</v>
       </c>
       <c r="O2" t="n">
-        <v>11.44589164070699</v>
+        <v>11.34932787781334</v>
       </c>
       <c r="P2" t="n">
-        <v>322.4085256686452</v>
+        <v>322.2516151426899</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14354,28 +14674,28 @@
         <v>0.1155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3336562566386219</v>
+        <v>0.3799655915143907</v>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K3" t="n">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0329554553988477</v>
+        <v>0.0436885621827926</v>
       </c>
       <c r="M3" t="n">
-        <v>10.37320499262493</v>
+        <v>10.34963453818826</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3315693654564</v>
+        <v>170.3577692267363</v>
       </c>
       <c r="O3" t="n">
-        <v>13.08936856251884</v>
+        <v>13.05211742311324</v>
       </c>
       <c r="P3" t="n">
-        <v>324.2750743982087</v>
+        <v>323.8170096390913</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14431,28 +14751,28 @@
         <v>0.1059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2014393695817503</v>
+        <v>0.2125539346273663</v>
       </c>
       <c r="J4" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01736379829246815</v>
+        <v>0.02014300428739058</v>
       </c>
       <c r="M4" t="n">
-        <v>8.269114627862434</v>
+        <v>8.20353355769179</v>
       </c>
       <c r="N4" t="n">
-        <v>119.5510579467498</v>
+        <v>117.4660831288671</v>
       </c>
       <c r="O4" t="n">
-        <v>10.93394064126698</v>
+        <v>10.83817711282054</v>
       </c>
       <c r="P4" t="n">
-        <v>337.0245036417103</v>
+        <v>336.9139914635546</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -14508,28 +14828,28 @@
         <v>0.1268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2282040391911818</v>
+        <v>0.2290916876159661</v>
       </c>
       <c r="J5" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K5" t="n">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02967537725746006</v>
+        <v>0.03139265983761153</v>
       </c>
       <c r="M5" t="n">
-        <v>7.180013997878884</v>
+        <v>7.069280221136185</v>
       </c>
       <c r="N5" t="n">
-        <v>89.34567504600292</v>
+        <v>87.37581156759552</v>
       </c>
       <c r="O5" t="n">
-        <v>9.452284117926361</v>
+        <v>9.347502958950884</v>
       </c>
       <c r="P5" t="n">
-        <v>344.6413413660531</v>
+        <v>344.632708180216</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14585,28 +14905,28 @@
         <v>0.0813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2430552610933019</v>
+        <v>0.2494436933538836</v>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0206313578809415</v>
+        <v>0.0225634184251905</v>
       </c>
       <c r="M6" t="n">
-        <v>9.583807682899042</v>
+        <v>9.539393261101592</v>
       </c>
       <c r="N6" t="n">
-        <v>145.4124332292991</v>
+        <v>143.9496132189776</v>
       </c>
       <c r="O6" t="n">
-        <v>12.05870777609687</v>
+        <v>11.99790036710497</v>
       </c>
       <c r="P6" t="n">
-        <v>341.3122033394089</v>
+        <v>341.2496326433665</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14662,28 +14982,28 @@
         <v>0.0936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2059201516154181</v>
+        <v>0.213043788031583</v>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="K7" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0157008435497995</v>
+        <v>0.01743434241562336</v>
       </c>
       <c r="M7" t="n">
-        <v>9.463759331966944</v>
+        <v>9.438730003324967</v>
       </c>
       <c r="N7" t="n">
-        <v>138.4808912310969</v>
+        <v>137.1766676239271</v>
       </c>
       <c r="O7" t="n">
-        <v>11.7677904141388</v>
+        <v>11.71224434615019</v>
       </c>
       <c r="P7" t="n">
-        <v>344.2527767373118</v>
+        <v>344.1832455818462</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14720,7 +15040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:H359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28394,6 +28714,342 @@
         </is>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>-36.77242198720272,175.7487577945866</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>-36.7731377017086,175.74864275744312</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>-36.773858642662425,175.7485568290035</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>-36.774565029614585,175.74835955180112</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>-36.775284499557564,175.7482558132507</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>-36.77600515509589,175.74823339351585</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>-36.7724399700796,175.74886538039198</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>-36.773160322397985,175.74877809110325</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>-36.7738522825983,175.74851791878007</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>-36.77457216032349,175.7484193660484</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>-36.77529644358226,175.74841830403523</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>-36.77600593629649,175.74824492384542</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>-36.77241291631844,175.7487035266275</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>-36.77313956507141,175.74865390541657</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>-36.77385969774811,175.74856328391834</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>-36.77456179437546,175.7483324138586</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>-36.775283233711995,175.74823859241576</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>-36.776003454090635,175.74820828715363</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>-36.77240877485576,175.7486787497449</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>-36.77312095647157,175.74854257572798</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>-36.77383571345171,175.74841655083242</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>-36.7745579781057,175.7483004021656</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>-36.77527571001726,175.74813623917305</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>-36.7759940115242,175.7480689189614</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>-36.77243784439146,175.74885266304582</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>-36.77315446711314,175.7487430603704</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>-36.77385088671652,175.74850937892919</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>-36.77457098507912,175.7484095077737</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>-36.775292278421865,175.7483616393526</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>-36.77601257393616,175.74834289445877</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>-36.77242680667238,175.74878662787043</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>-36.773149265728705,175.74871194182018</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>-36.77384823316781,175.74849314482194</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>-36.77456612563294,175.74836874547182</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>-36.77527605078108,175.7481408749383</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>-36.775991418380606,175.74803064571503</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>-36.77241758920139,175.74873148284743</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>-36.77312460412819,175.74856439851277</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>-36.7738335441784,175.7484032795349</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-36.77456032861198,175.74832011870976</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>-36.775273472213215,175.7481057960557</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>-36.775994223208826,175.74807204330813</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>-36.77241450448855,175.74871302808754</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>-36.77313635723187,175.74863471382284</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>-36.77383428168929,175.7484077915178</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>-36.774563999620774,175.74835091196616</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>-36.77527946192223,175.74818728038363</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>-36.77599603512518,175.74809878622878</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -14442,7 +14442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14533,35 +14533,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14620,27 +14625,28 @@
       <c r="P2" t="n">
         <v>322.2516151426899</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.7451059332856 -36.771811518209255, 175.7552004147047 -36.773498677113515)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.7451059332856</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.77181151820925</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.7552004147047</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.77349867711352</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.7501531739952</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.77265509766139</v>
       </c>
     </row>
@@ -14697,27 +14703,28 @@
       <c r="P3" t="n">
         <v>323.8170096390913</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.7449064532674 -36.77251312077516, 175.75500099343913 -36.77420028240357)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.7449064532674</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.77251312077516</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.7550009934391</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.77420028240357</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.7499537233533</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.77335670158936</v>
       </c>
     </row>
@@ -14774,27 +14781,28 @@
       <c r="P4" t="n">
         <v>336.9139914635546</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.74470333716965 -36.773228703108856, 175.75480709974786 -36.77488009863518)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.7447033371697</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.77322870310886</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.7548070997479</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.77488009863518</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.7497552184587</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.77405440087202</v>
       </c>
     </row>
@@ -14851,27 +14859,28 @@
       <c r="P5" t="n">
         <v>344.632708180216</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.74447375003726 -36.77410171889599, 175.75467292483734 -36.775317498647375)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.7444737500373</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.77410171889599</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.7546729248373</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.77531749864738</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.7495733374373</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.77470960877169</v>
       </c>
     </row>
@@ -14928,27 +14937,28 @@
       <c r="P6" t="n">
         <v>341.2496326433665</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.7443411982211 -36.774996683791265, 175.75460924859868 -36.77575134515326)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.7443411982211</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.77499668379127</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.7546092485987</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.77575134515326</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.7494752234099</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.77537401447226</v>
       </c>
     </row>
@@ -15005,27 +15015,28 @@
       <c r="P7" t="n">
         <v>344.1832455818462</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.74424636411337 -36.77573495831178, 175.75452089676972 -36.77643097558635)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.7442463641134</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.77573495831178</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.7545208967697</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.77643097558635</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.7493836304415</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.77608296694906</v>
       </c>
     </row>

--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H359"/>
+  <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10677,6 +10677,156 @@
       <c r="H359" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>336.4866666666667</v>
+      </c>
+      <c r="C360" t="n">
+        <v>342.4252631578947</v>
+      </c>
+      <c r="D360" t="n">
+        <v>348.6970588235294</v>
+      </c>
+      <c r="E360" t="n">
+        <v>353.83</v>
+      </c>
+      <c r="F360" t="n">
+        <v>351.0542857142857</v>
+      </c>
+      <c r="G360" t="n">
+        <v>356.7866666666667</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>336.7266666666667</v>
+      </c>
+      <c r="C361" t="n">
+        <v>343.0505263157895</v>
+      </c>
+      <c r="D361" t="n">
+        <v>353.0711764705882</v>
+      </c>
+      <c r="E361" t="n">
+        <v>349.35</v>
+      </c>
+      <c r="F361" t="n">
+        <v>348.4285714285714</v>
+      </c>
+      <c r="G361" t="n">
+        <v>351.1466666666666</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>334.76</v>
+      </c>
+      <c r="C362" t="n">
+        <v>340.8542105263158</v>
+      </c>
+      <c r="D362" t="n">
+        <v>346.5911764705882</v>
+      </c>
+      <c r="E362" t="n">
+        <v>348.82</v>
+      </c>
+      <c r="F362" t="n">
+        <v>347.4585714285714</v>
+      </c>
+      <c r="G362" t="n">
+        <v>354.28</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>329.0033333333333</v>
+      </c>
+      <c r="C363" t="n">
+        <v>332.9331578947368</v>
+      </c>
+      <c r="D363" t="n">
+        <v>340.9370588235294</v>
+      </c>
+      <c r="E363" t="n">
+        <v>346.78</v>
+      </c>
+      <c r="F363" t="n">
+        <v>342.6385714285714</v>
+      </c>
+      <c r="G363" t="n">
+        <v>342.8833333333333</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>323.01</v>
+      </c>
+      <c r="C364" t="n">
+        <v>329.2647368421053</v>
+      </c>
+      <c r="D364" t="n">
+        <v>334.9876470588235</v>
+      </c>
+      <c r="E364" t="n">
+        <v>342.64</v>
+      </c>
+      <c r="F364" t="n">
+        <v>333.6414285714285</v>
+      </c>
+      <c r="G364" t="n">
+        <v>337.6799999999999</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14429,6 +14579,56 @@
       </c>
       <c r="B373" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -14602,28 +14802,28 @@
         <v>0.0862</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3187554879254842</v>
+        <v>0.3232877147197715</v>
       </c>
       <c r="J2" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K2" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04103808046417545</v>
+        <v>0.04330380415947499</v>
       </c>
       <c r="M2" t="n">
-        <v>8.575939862118355</v>
+        <v>8.519263445688733</v>
       </c>
       <c r="N2" t="n">
-        <v>128.8072432781111</v>
+        <v>127.26545476676</v>
       </c>
       <c r="O2" t="n">
-        <v>11.34932787781334</v>
+        <v>11.28119917237348</v>
       </c>
       <c r="P2" t="n">
-        <v>322.2516151426899</v>
+        <v>322.2066532411328</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14680,28 +14880,28 @@
         <v>0.1155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3799655915143907</v>
+        <v>0.3921606223358267</v>
       </c>
       <c r="J3" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K3" t="n">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0436885621827926</v>
+        <v>0.04763941105058855</v>
       </c>
       <c r="M3" t="n">
-        <v>10.34963453818826</v>
+        <v>10.28151848504527</v>
       </c>
       <c r="N3" t="n">
-        <v>170.3577692267363</v>
+        <v>168.4364210889455</v>
       </c>
       <c r="O3" t="n">
-        <v>13.05211742311324</v>
+        <v>12.9783057865403</v>
       </c>
       <c r="P3" t="n">
-        <v>323.8170096390913</v>
+        <v>323.6952738537591</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14758,28 +14958,28 @@
         <v>0.1059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2125539346273663</v>
+        <v>0.2197686761947075</v>
       </c>
       <c r="J4" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K4" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02014300428739058</v>
+        <v>0.02203770713082542</v>
       </c>
       <c r="M4" t="n">
-        <v>8.20353355769179</v>
+        <v>8.169236911790518</v>
       </c>
       <c r="N4" t="n">
-        <v>117.4660831288671</v>
+        <v>116.3534837341292</v>
       </c>
       <c r="O4" t="n">
-        <v>10.83817711282054</v>
+        <v>10.7867272021744</v>
       </c>
       <c r="P4" t="n">
-        <v>336.9139914635546</v>
+        <v>336.841346680551</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14836,28 +15036,28 @@
         <v>0.1268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2290916876159661</v>
+        <v>0.2223489722748854</v>
       </c>
       <c r="J5" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K5" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03139265983761153</v>
+        <v>0.03047150486675432</v>
       </c>
       <c r="M5" t="n">
-        <v>7.069280221136185</v>
+        <v>7.016559377216071</v>
       </c>
       <c r="N5" t="n">
-        <v>87.37581156759552</v>
+        <v>86.28649218064794</v>
       </c>
       <c r="O5" t="n">
-        <v>9.347502958950884</v>
+        <v>9.289052275697879</v>
       </c>
       <c r="P5" t="n">
-        <v>344.632708180216</v>
+        <v>344.7003335328558</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14914,28 +15114,28 @@
         <v>0.0813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2494436933538836</v>
+        <v>0.2400072152786321</v>
       </c>
       <c r="J6" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0225634184251905</v>
+        <v>0.0215107103091573</v>
       </c>
       <c r="M6" t="n">
-        <v>9.539393261101592</v>
+        <v>9.461241210535835</v>
       </c>
       <c r="N6" t="n">
-        <v>143.9496132189776</v>
+        <v>142.377127206893</v>
       </c>
       <c r="O6" t="n">
-        <v>11.99790036710497</v>
+        <v>11.93218870144505</v>
       </c>
       <c r="P6" t="n">
-        <v>341.2496326433665</v>
+        <v>341.344757764317</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14992,28 +15192,28 @@
         <v>0.0936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.213043788031583</v>
+        <v>0.2096231004210558</v>
       </c>
       <c r="J7" t="n">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K7" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01743434241562336</v>
+        <v>0.01733825354767227</v>
       </c>
       <c r="M7" t="n">
-        <v>9.438730003324967</v>
+        <v>9.391729466152253</v>
       </c>
       <c r="N7" t="n">
-        <v>137.1766676239271</v>
+        <v>135.8545647944003</v>
       </c>
       <c r="O7" t="n">
-        <v>11.71224434615019</v>
+        <v>11.65566663878134</v>
       </c>
       <c r="P7" t="n">
-        <v>344.1832455818462</v>
+        <v>344.217867885778</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15051,7 +15251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H359"/>
+  <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29061,6 +29261,216 @@
         </is>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>-36.77242818715285,175.74879488683445</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>-36.773140675179924,175.74866054688545</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>-36.773854206023174,175.74852968608826</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>-36.774569017533324,175.7483930034716</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>-36.775284506583525,175.74825590883347</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>-36.77600475693513,175.7482275167673</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>-36.7724286269518,175.7487975180089</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>-36.77314182097353,175.7486674018509</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>-36.77386205164299,175.74857768483395</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>-36.774563101676925,175.7483433798025</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>-36.77528235429329,175.7482266286352</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>-36.776000493068736,175.7481645834879</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:17+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>-36.77242502304185,175.74877595699695</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>-36.77313779622704,175.74864332292003</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>-36.773850428808075,175.7485065774967</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>-36.77456240180858,175.74833750914564</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>-36.7752815591853,175.7482158118484</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>-36.77600286188756,175.7481995464203</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>-36.77241447394683,175.74871284536715</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>-36.77312328086454,175.74855648183865</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>-36.77384028727934,175.74844453287474</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>-36.77455970797301,175.74831491265587</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>-36.775277608221636,175.74816206245671</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>-36.77599424588932,175.7480723780596</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20 22:05:49+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>-36.77240349112359,175.74864713912376</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>-36.77311655844546,175.74851626375295</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>-36.7738296160595,175.74837924790208</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>-36.77455424105798,175.74826905507777</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>-36.7752702331799,175.74806173239364</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>-36.775990312069695,175.74801431728494</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H364"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10825,6 +10825,34 @@
         <v>337.6799999999999</v>
       </c>
       <c r="H364" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="n">
+        <v>342.0326315789474</v>
+      </c>
+      <c r="D365" t="n">
+        <v>341.5905882352941</v>
+      </c>
+      <c r="E365" t="n">
+        <v>356.37</v>
+      </c>
+      <c r="F365" t="n">
+        <v>349.8857142857143</v>
+      </c>
+      <c r="G365" t="n">
+        <v>354.0833333333334</v>
+      </c>
+      <c r="H365" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10841,7 +10869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B378"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14629,6 +14657,16 @@
       </c>
       <c r="B378" t="n">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -14805,7 +14843,7 @@
         <v>0.3232877147197715</v>
       </c>
       <c r="J2" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K2" t="n">
         <v>319</v>
@@ -14880,28 +14918,28 @@
         <v>0.1155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3921606223358267</v>
+        <v>0.3970509153415574</v>
       </c>
       <c r="J3" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K3" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04763941105058855</v>
+        <v>0.04901121231180894</v>
       </c>
       <c r="M3" t="n">
-        <v>10.28151848504527</v>
+        <v>10.2743856992782</v>
       </c>
       <c r="N3" t="n">
-        <v>168.4364210889455</v>
+        <v>168.1201705113387</v>
       </c>
       <c r="O3" t="n">
-        <v>12.9783057865403</v>
+        <v>12.96611624625272</v>
       </c>
       <c r="P3" t="n">
-        <v>323.6952738537591</v>
+        <v>323.6460350035035</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14958,28 +14996,28 @@
         <v>0.1059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2197686761947075</v>
+        <v>0.219227081143035</v>
       </c>
       <c r="J4" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02203770713082542</v>
+        <v>0.0220631461805324</v>
       </c>
       <c r="M4" t="n">
-        <v>8.169236911790518</v>
+        <v>8.146877748023178</v>
       </c>
       <c r="N4" t="n">
-        <v>116.3534837341292</v>
+        <v>115.9969627059476</v>
       </c>
       <c r="O4" t="n">
-        <v>10.7867272021744</v>
+        <v>10.77018861050946</v>
       </c>
       <c r="P4" t="n">
-        <v>336.841346680551</v>
+        <v>336.8468595431938</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15036,28 +15074,28 @@
         <v>0.1268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2223489722748854</v>
+        <v>0.2259078748187609</v>
       </c>
       <c r="J5" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K5" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03047150486675432</v>
+        <v>0.03157907240109936</v>
       </c>
       <c r="M5" t="n">
-        <v>7.016559377216071</v>
+        <v>7.011660108471061</v>
       </c>
       <c r="N5" t="n">
-        <v>86.28649218064794</v>
+        <v>86.12529497288718</v>
       </c>
       <c r="O5" t="n">
-        <v>9.289052275697879</v>
+        <v>9.280371488948445</v>
       </c>
       <c r="P5" t="n">
-        <v>344.7003335328558</v>
+        <v>344.6645839681272</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15114,28 +15152,28 @@
         <v>0.0813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2400072152786321</v>
+        <v>0.2414666389116324</v>
       </c>
       <c r="J6" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K6" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0215107103091573</v>
+        <v>0.02190553707564602</v>
       </c>
       <c r="M6" t="n">
-        <v>9.461241210535835</v>
+        <v>9.438285898556106</v>
       </c>
       <c r="N6" t="n">
-        <v>142.377127206893</v>
+        <v>141.9368829950028</v>
       </c>
       <c r="O6" t="n">
-        <v>11.93218870144505</v>
+        <v>11.91372666276186</v>
       </c>
       <c r="P6" t="n">
-        <v>341.344757764317</v>
+        <v>341.3300317203455</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15192,28 +15230,28 @@
         <v>0.0936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2096231004210558</v>
+        <v>0.2123215515794286</v>
       </c>
       <c r="J7" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01733825354767227</v>
+        <v>0.01788474108766835</v>
       </c>
       <c r="M7" t="n">
-        <v>9.391729466152253</v>
+        <v>9.375759796335014</v>
       </c>
       <c r="N7" t="n">
-        <v>135.8545647944003</v>
+        <v>135.491500894328</v>
       </c>
       <c r="O7" t="n">
-        <v>11.65566663878134</v>
+        <v>11.64008165325003</v>
       </c>
       <c r="P7" t="n">
-        <v>344.217867885778</v>
+        <v>344.1907864544107</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15251,7 +15289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H364"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29471,6 +29509,44 @@
         </is>
       </c>
     </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr"/>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>-36.773139955683064,175.74865624233652</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>-36.77384145948645,175.74845170428216</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>-36.77457237160328,175.74842113832253</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>-36.77528354870987,175.74824287771136</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>-36.77600271320668,175.74819735193833</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10853,6 +10853,66 @@
         <v>354.0833333333334</v>
       </c>
       <c r="H365" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>336.6566666666667</v>
+      </c>
+      <c r="C366" t="n">
+        <v>344.2994736842105</v>
+      </c>
+      <c r="D366" t="n">
+        <v>346.8358823529412</v>
+      </c>
+      <c r="E366" t="n">
+        <v>353.25</v>
+      </c>
+      <c r="F366" t="n">
+        <v>364.4114285714285</v>
+      </c>
+      <c r="G366" t="n">
+        <v>351.8966666666666</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>329.8633333333333</v>
+      </c>
+      <c r="C367" t="n">
+        <v>342.4278947368421</v>
+      </c>
+      <c r="D367" t="n">
+        <v>355.5729411764706</v>
+      </c>
+      <c r="E367" t="n">
+        <v>359.56</v>
+      </c>
+      <c r="F367" t="n">
+        <v>351.6442857142857</v>
+      </c>
+      <c r="G367" t="n">
+        <v>358.0633333333333</v>
+      </c>
+      <c r="H367" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10869,7 +10929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14667,6 +14727,26 @@
       </c>
       <c r="B379" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -14840,28 +14920,28 @@
         <v>0.0862</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3232877147197715</v>
+        <v>0.3264545995172535</v>
       </c>
       <c r="J2" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K2" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04330380415947499</v>
+        <v>0.044611992174455</v>
       </c>
       <c r="M2" t="n">
-        <v>8.519263445688733</v>
+        <v>8.485766076548733</v>
       </c>
       <c r="N2" t="n">
-        <v>127.26545476676</v>
+        <v>126.5887134098043</v>
       </c>
       <c r="O2" t="n">
-        <v>11.28119917237348</v>
+        <v>11.25116498011669</v>
       </c>
       <c r="P2" t="n">
-        <v>322.2066532411328</v>
+        <v>322.1747109848861</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14918,28 +14998,28 @@
         <v>0.1155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3970509153415574</v>
+        <v>0.4081585653779722</v>
       </c>
       <c r="J3" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K3" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04901121231180894</v>
+        <v>0.05210297221620275</v>
       </c>
       <c r="M3" t="n">
-        <v>10.2743856992782</v>
+        <v>10.26665928914511</v>
       </c>
       <c r="N3" t="n">
-        <v>168.1201705113387</v>
+        <v>167.6265117601001</v>
       </c>
       <c r="O3" t="n">
-        <v>12.96611624625272</v>
+        <v>12.94706575869993</v>
       </c>
       <c r="P3" t="n">
-        <v>323.6460350035035</v>
+        <v>323.5337799315225</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14996,28 +15076,28 @@
         <v>0.1059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.219227081143035</v>
+        <v>0.2293328673736164</v>
       </c>
       <c r="J4" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0220631461805324</v>
+        <v>0.02426590865905165</v>
       </c>
       <c r="M4" t="n">
-        <v>8.146877748023178</v>
+        <v>8.150431891174923</v>
       </c>
       <c r="N4" t="n">
-        <v>115.9969627059476</v>
+        <v>115.8565303325386</v>
       </c>
       <c r="O4" t="n">
-        <v>10.77018861050946</v>
+        <v>10.76366714147825</v>
       </c>
       <c r="P4" t="n">
-        <v>336.8468595431938</v>
+        <v>336.7435759719648</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15074,28 +15154,28 @@
         <v>0.1268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2259078748187609</v>
+        <v>0.232901556984829</v>
       </c>
       <c r="J5" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K5" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03157907240109936</v>
+        <v>0.03380566259925755</v>
       </c>
       <c r="M5" t="n">
-        <v>7.011660108471061</v>
+        <v>7.001563740880454</v>
       </c>
       <c r="N5" t="n">
-        <v>86.12529497288718</v>
+        <v>85.86302116500194</v>
       </c>
       <c r="O5" t="n">
-        <v>9.280371488948445</v>
+        <v>9.266230148501705</v>
       </c>
       <c r="P5" t="n">
-        <v>344.6645839681272</v>
+        <v>344.594047132454</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15152,28 +15232,28 @@
         <v>0.0813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2414666389116324</v>
+        <v>0.2542872588516469</v>
       </c>
       <c r="J6" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K6" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02190553707564602</v>
+        <v>0.02438831470209246</v>
       </c>
       <c r="M6" t="n">
-        <v>9.438285898556106</v>
+        <v>9.442826560339961</v>
       </c>
       <c r="N6" t="n">
-        <v>141.9368829950028</v>
+        <v>141.9747185281426</v>
       </c>
       <c r="O6" t="n">
-        <v>11.91372666276186</v>
+        <v>11.91531445359889</v>
       </c>
       <c r="P6" t="n">
-        <v>341.3300317203455</v>
+        <v>341.2002308910441</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15230,28 +15310,28 @@
         <v>0.0936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2123215515794286</v>
+        <v>0.2186610367950731</v>
       </c>
       <c r="J7" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K7" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01788474108766835</v>
+        <v>0.01915668503339285</v>
       </c>
       <c r="M7" t="n">
-        <v>9.375759796335014</v>
+        <v>9.348856645332342</v>
       </c>
       <c r="N7" t="n">
-        <v>135.491500894328</v>
+        <v>134.8797279724788</v>
       </c>
       <c r="O7" t="n">
-        <v>11.64008165325003</v>
+        <v>11.61377320135359</v>
       </c>
       <c r="P7" t="n">
-        <v>344.1907864544107</v>
+        <v>344.126909319685</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15289,7 +15369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26854,7 +26934,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-36.77600004954406,175.7481580372369</t>
+          <t>-36.77600004954407,175.7481580372369</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -29547,6 +29627,90 @@
         </is>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>-36.77242849867712,175.748796750583</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>-36.77314410966611,175.74868109447183</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>-36.77385086772493,175.74850926274075</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>-36.774568251642386,175.74838657897837</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>-36.77529545528129,175.74840485871795</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>-36.77600106007418,175.74817295227476</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>-36.772416049899505,175.74872227373936</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>-36.77314068000229,175.7486605757363</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>-36.77386653891504,175.74860513759</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>-36.774576583988626,175.7484564730398</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>-36.77528499020379,175.7482624881165</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>-36.77600572209643,175.74824176230345</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10913,6 +10913,36 @@
         <v>358.0633333333333</v>
       </c>
       <c r="H367" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>339.5233333333333</v>
+      </c>
+      <c r="C368" t="n">
+        <v>342.8931578947368</v>
+      </c>
+      <c r="D368" t="n">
+        <v>355.9352941176471</v>
+      </c>
+      <c r="E368" t="n">
+        <v>358.96</v>
+      </c>
+      <c r="F368" t="n">
+        <v>350.3228571428572</v>
+      </c>
+      <c r="G368" t="n">
+        <v>354.8733333333333</v>
+      </c>
+      <c r="H368" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10929,7 +10959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B381"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14747,6 +14777,16 @@
       </c>
       <c r="B381" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -14920,28 +14960,28 @@
         <v>0.0862</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3264545995172535</v>
+        <v>0.3316739425333926</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K2" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" t="n">
-        <v>0.044611992174455</v>
+        <v>0.0461728878192792</v>
       </c>
       <c r="M2" t="n">
-        <v>8.485766076548733</v>
+        <v>8.484119472517694</v>
       </c>
       <c r="N2" t="n">
-        <v>126.5887134098043</v>
+        <v>126.4383425076555</v>
       </c>
       <c r="O2" t="n">
-        <v>11.25116498011669</v>
+        <v>11.24448053525175</v>
       </c>
       <c r="P2" t="n">
-        <v>322.1747109848861</v>
+        <v>322.1218876512759</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14998,28 +15038,28 @@
         <v>0.1155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4081585653779722</v>
+        <v>0.4132988716972</v>
       </c>
       <c r="J3" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K3" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05210297221620275</v>
+        <v>0.0535960513259246</v>
       </c>
       <c r="M3" t="n">
-        <v>10.26665928914511</v>
+        <v>10.26067883834908</v>
       </c>
       <c r="N3" t="n">
-        <v>167.6265117601001</v>
+        <v>167.3445829890409</v>
       </c>
       <c r="O3" t="n">
-        <v>12.94706575869993</v>
+        <v>12.93617342914978</v>
       </c>
       <c r="P3" t="n">
-        <v>323.5337799315225</v>
+        <v>323.4816884026874</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15076,28 +15116,28 @@
         <v>0.1059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2293328673736164</v>
+        <v>0.2370051569313845</v>
       </c>
       <c r="J4" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02426590865905165</v>
+        <v>0.02591117645040519</v>
       </c>
       <c r="M4" t="n">
-        <v>8.150431891174923</v>
+        <v>8.167385926013543</v>
       </c>
       <c r="N4" t="n">
-        <v>115.8565303325386</v>
+        <v>116.0337924600129</v>
       </c>
       <c r="O4" t="n">
-        <v>10.76366714147825</v>
+        <v>10.77189827560644</v>
       </c>
       <c r="P4" t="n">
-        <v>336.7435759719648</v>
+        <v>336.6649725162416</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15154,28 +15194,28 @@
         <v>0.1268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.232901556984829</v>
+        <v>0.2378176149059542</v>
       </c>
       <c r="J5" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K5" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03380566259925755</v>
+        <v>0.0353259316564789</v>
       </c>
       <c r="M5" t="n">
-        <v>7.001563740880454</v>
+        <v>7.003417813294479</v>
       </c>
       <c r="N5" t="n">
-        <v>85.86302116500194</v>
+        <v>85.80964799928979</v>
       </c>
       <c r="O5" t="n">
-        <v>9.266230148501705</v>
+        <v>9.263349718071201</v>
       </c>
       <c r="P5" t="n">
-        <v>344.594047132454</v>
+        <v>344.5443456521925</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15232,28 +15272,28 @@
         <v>0.0813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2542872588516469</v>
+        <v>0.2558322660607723</v>
       </c>
       <c r="J6" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K6" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02438831470209246</v>
+        <v>0.02483170430451154</v>
       </c>
       <c r="M6" t="n">
-        <v>9.442826560339961</v>
+        <v>9.420514773020594</v>
       </c>
       <c r="N6" t="n">
-        <v>141.9747185281426</v>
+        <v>141.542729731092</v>
       </c>
       <c r="O6" t="n">
-        <v>11.91531445359889</v>
+        <v>11.8971731823611</v>
       </c>
       <c r="P6" t="n">
-        <v>341.2002308910441</v>
+        <v>341.1845420090986</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15310,28 +15350,28 @@
         <v>0.0936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2186610367950731</v>
+        <v>0.2216848329648819</v>
       </c>
       <c r="J7" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K7" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01915668503339285</v>
+        <v>0.01979166191202675</v>
       </c>
       <c r="M7" t="n">
-        <v>9.348856645332342</v>
+        <v>9.334797396442747</v>
       </c>
       <c r="N7" t="n">
-        <v>134.8797279724788</v>
+        <v>134.5411584936479</v>
       </c>
       <c r="O7" t="n">
-        <v>11.61377320135359</v>
+        <v>11.59918783767415</v>
       </c>
       <c r="P7" t="n">
-        <v>344.126909319685</v>
+        <v>344.0963701843607</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15369,7 +15409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29711,6 +29751,48 @@
         </is>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-36.772433751827066,175.7488281785018</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-36.77314153259621,175.74866567656917</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-36.77386718884622,175.74860911381825</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-36.77457579169128,175.74844982701123</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>-36.775283907034414,175.74824775243428</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>-36.776003310449944,175.74820616706086</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10945,6 +10945,96 @@
       <c r="H368" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>331.5666666666667</v>
+      </c>
+      <c r="C369" t="n">
+        <v>337.14</v>
+      </c>
+      <c r="D369" t="n">
+        <v>344.6547058823529</v>
+      </c>
+      <c r="E369" t="n">
+        <v>353.91</v>
+      </c>
+      <c r="F369" t="n">
+        <v>349.5357142857143</v>
+      </c>
+      <c r="G369" t="n">
+        <v>351.2266666666666</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>329.3833333333333</v>
+      </c>
+      <c r="C370" t="n">
+        <v>333.8357894736842</v>
+      </c>
+      <c r="D370" t="n">
+        <v>339.6182352941176</v>
+      </c>
+      <c r="E370" t="n">
+        <v>349.46</v>
+      </c>
+      <c r="F370" t="n">
+        <v>344.8928571428572</v>
+      </c>
+      <c r="G370" t="n">
+        <v>352.1333333333333</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>330.4299999999999</v>
+      </c>
+      <c r="C371" t="n">
+        <v>337.43</v>
+      </c>
+      <c r="D371" t="n">
+        <v>353.8141176470588</v>
+      </c>
+      <c r="E371" t="n">
+        <v>353.54</v>
+      </c>
+      <c r="F371" t="n">
+        <v>350.6171428571428</v>
+      </c>
+      <c r="G371" t="n">
+        <v>356.01</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10959,7 +11049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14787,6 +14877,36 @@
       </c>
       <c r="B382" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -14960,28 +15080,28 @@
         <v>0.0862</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3316739425333926</v>
+        <v>0.3311401732741424</v>
       </c>
       <c r="J2" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K2" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0461728878192792</v>
+        <v>0.04685519243219083</v>
       </c>
       <c r="M2" t="n">
-        <v>8.484119472517694</v>
+        <v>8.413866353351747</v>
       </c>
       <c r="N2" t="n">
-        <v>126.4383425076555</v>
+        <v>125.2794529548665</v>
       </c>
       <c r="O2" t="n">
-        <v>11.24448053525175</v>
+        <v>11.1928304264322</v>
       </c>
       <c r="P2" t="n">
-        <v>322.1218876512759</v>
+        <v>322.1273318940997</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15038,28 +15158,28 @@
         <v>0.1155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4132988716972</v>
+        <v>0.4165546763454748</v>
       </c>
       <c r="J3" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K3" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0535960513259246</v>
+        <v>0.05534596099492184</v>
       </c>
       <c r="M3" t="n">
-        <v>10.26067883834908</v>
+        <v>10.18535175681782</v>
       </c>
       <c r="N3" t="n">
-        <v>167.3445829890409</v>
+        <v>165.8652555747618</v>
       </c>
       <c r="O3" t="n">
-        <v>12.93617342914978</v>
+        <v>12.87886856733781</v>
       </c>
       <c r="P3" t="n">
-        <v>323.4816884026874</v>
+        <v>323.4484811344315</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15116,28 +15236,28 @@
         <v>0.1059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2370051569313845</v>
+        <v>0.2424727025703747</v>
       </c>
       <c r="J4" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K4" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02591117645040519</v>
+        <v>0.02747809516314259</v>
       </c>
       <c r="M4" t="n">
-        <v>8.167385926013543</v>
+        <v>8.142346570260472</v>
       </c>
       <c r="N4" t="n">
-        <v>116.0337924600129</v>
+        <v>115.3823947272353</v>
       </c>
       <c r="O4" t="n">
-        <v>10.77189827560644</v>
+        <v>10.74161974411845</v>
       </c>
       <c r="P4" t="n">
-        <v>336.6649725162416</v>
+        <v>336.6085388854</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15194,28 +15314,28 @@
         <v>0.1268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2378176149059542</v>
+        <v>0.2405380165732198</v>
       </c>
       <c r="J5" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K5" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0353259316564789</v>
+        <v>0.03674558705623709</v>
       </c>
       <c r="M5" t="n">
-        <v>7.003417813294479</v>
+        <v>6.959712762457496</v>
       </c>
       <c r="N5" t="n">
-        <v>85.80964799928979</v>
+        <v>85.07694861668232</v>
       </c>
       <c r="O5" t="n">
-        <v>9.263349718071201</v>
+        <v>9.223716637922173</v>
       </c>
       <c r="P5" t="n">
-        <v>344.5443456521925</v>
+        <v>344.516668906633</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15272,28 +15392,28 @@
         <v>0.0813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2558322660607723</v>
+        <v>0.2567278010042665</v>
       </c>
       <c r="J6" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K6" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02483170430451154</v>
+        <v>0.02547001474814814</v>
       </c>
       <c r="M6" t="n">
-        <v>9.420514773020594</v>
+        <v>9.354518658175717</v>
       </c>
       <c r="N6" t="n">
-        <v>141.542729731092</v>
+        <v>140.2637838563315</v>
       </c>
       <c r="O6" t="n">
-        <v>11.8971731823611</v>
+        <v>11.84330122289944</v>
       </c>
       <c r="P6" t="n">
-        <v>341.1845420090986</v>
+        <v>341.1753839319363</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15350,28 +15470,28 @@
         <v>0.0936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2216848329648819</v>
+        <v>0.2274041944080628</v>
       </c>
       <c r="J7" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K7" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01979166191202675</v>
+        <v>0.02117678520356747</v>
       </c>
       <c r="M7" t="n">
-        <v>9.334797396442747</v>
+        <v>9.276415167345085</v>
       </c>
       <c r="N7" t="n">
-        <v>134.5411584936479</v>
+        <v>133.4369242407375</v>
       </c>
       <c r="O7" t="n">
-        <v>11.59918783767415</v>
+        <v>11.55149013074666</v>
       </c>
       <c r="P7" t="n">
-        <v>344.0963701843607</v>
+        <v>344.0382140808499</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15409,7 +15529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29793,6 +29913,132 @@
         </is>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-36.7724191712609,175.74874094776442</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-36.773130989928596,175.748602602816</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-36.77384695545427,175.7484853279221</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-36.774569123173436,175.74839388960862</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>-36.7752832618159,175.74823897474695</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>-36.776000553549345,175.7481654761585</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-36.77241517029811,175.74871701139205</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-36.77312493494401,175.74856637768133</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>-36.77383792176195,175.74843006096228</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-36.77456324693259,175.74834459824072</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>-36.77527945606722,175.7481872007313</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>-36.776001238995775,175.748175593092</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-36.772417088317525,175.7487284862329</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-36.7731315213547,175.74860578218056</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-36.7738633842147,175.74858583739206</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-36.7745686345879,175.74838979122498</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>-36.77528414825933,175.74825103411052</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>-36.77600416977349,175.74821885042297</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H371"/>
+  <dimension ref="A1:H372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11035,6 +11035,36 @@
       <c r="H371" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>333.2033333333334</v>
+      </c>
+      <c r="C372" t="n">
+        <v>331.3052631578948</v>
+      </c>
+      <c r="D372" t="n">
+        <v>353.3235294117647</v>
+      </c>
+      <c r="E372" t="n">
+        <v>356.67</v>
+      </c>
+      <c r="F372" t="n">
+        <v>362.2657142857143</v>
+      </c>
+      <c r="G372" t="n">
+        <v>351.9833333333333</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11049,7 +11079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B385"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14907,6 +14937,16 @@
       </c>
       <c r="B385" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -15080,28 +15120,28 @@
         <v>0.0862</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3311401732741424</v>
+        <v>0.3325337970325888</v>
       </c>
       <c r="J2" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K2" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04685519243219083</v>
+        <v>0.04750624816269877</v>
       </c>
       <c r="M2" t="n">
-        <v>8.413866353351747</v>
+        <v>8.394675025530407</v>
       </c>
       <c r="N2" t="n">
-        <v>125.2794529548665</v>
+        <v>124.9126877696244</v>
       </c>
       <c r="O2" t="n">
-        <v>11.1928304264322</v>
+        <v>11.17643448375305</v>
       </c>
       <c r="P2" t="n">
-        <v>322.1273318940997</v>
+        <v>322.113045537107</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15158,28 +15198,28 @@
         <v>0.1155</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4165546763454748</v>
+        <v>0.4147868476813722</v>
       </c>
       <c r="J3" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K3" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05534596099492184</v>
+        <v>0.05521704393118365</v>
       </c>
       <c r="M3" t="n">
-        <v>10.18535175681782</v>
+        <v>10.16406737204304</v>
       </c>
       <c r="N3" t="n">
-        <v>165.8652555747618</v>
+        <v>165.3877642279892</v>
       </c>
       <c r="O3" t="n">
-        <v>12.87886856733781</v>
+        <v>12.86031742329827</v>
       </c>
       <c r="P3" t="n">
-        <v>323.4484811344315</v>
+        <v>323.466626154777</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15236,28 +15276,28 @@
         <v>0.1059</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2424727025703747</v>
+        <v>0.2484079304084839</v>
       </c>
       <c r="J4" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K4" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02747809516314259</v>
+        <v>0.02889256081215885</v>
       </c>
       <c r="M4" t="n">
-        <v>8.142346570260472</v>
+        <v>8.150442694459844</v>
       </c>
       <c r="N4" t="n">
-        <v>115.3823947272353</v>
+        <v>115.3553290175858</v>
       </c>
       <c r="O4" t="n">
-        <v>10.74161974411845</v>
+        <v>10.74035981788253</v>
       </c>
       <c r="P4" t="n">
-        <v>336.6085388854</v>
+        <v>336.5469495940407</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15314,28 +15354,28 @@
         <v>0.1268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2405380165732198</v>
+        <v>0.2439496222712938</v>
       </c>
       <c r="J5" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K5" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03674558705623709</v>
+        <v>0.0379394646550536</v>
       </c>
       <c r="M5" t="n">
-        <v>6.959712762457496</v>
+        <v>6.954580199664227</v>
       </c>
       <c r="N5" t="n">
-        <v>85.07694861668232</v>
+        <v>84.92005712543144</v>
       </c>
       <c r="O5" t="n">
-        <v>9.223716637922173</v>
+        <v>9.215207926326537</v>
       </c>
       <c r="P5" t="n">
-        <v>344.516668906633</v>
+        <v>344.4817357163992</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15392,28 +15432,28 @@
         <v>0.0813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2567278010042665</v>
+        <v>0.265384917840809</v>
       </c>
       <c r="J6" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K6" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02547001474814814</v>
+        <v>0.02721954637054047</v>
       </c>
       <c r="M6" t="n">
-        <v>9.354518658175717</v>
+        <v>9.368043608575201</v>
       </c>
       <c r="N6" t="n">
-        <v>140.2637838563315</v>
+        <v>140.4654028923729</v>
       </c>
       <c r="O6" t="n">
-        <v>11.84330122289944</v>
+        <v>11.8518101103744</v>
       </c>
       <c r="P6" t="n">
-        <v>341.1753839319363</v>
+        <v>341.0863638730212</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15470,28 +15510,28 @@
         <v>0.0936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2274041944080628</v>
+        <v>0.2285729185068466</v>
       </c>
       <c r="J7" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02117678520356747</v>
+        <v>0.02152218472458611</v>
       </c>
       <c r="M7" t="n">
-        <v>9.276415167345085</v>
+        <v>9.253588750036551</v>
       </c>
       <c r="N7" t="n">
-        <v>133.4369242407375</v>
+        <v>133.0408339973594</v>
       </c>
       <c r="O7" t="n">
-        <v>11.55149013074666</v>
+        <v>11.53433283711544</v>
       </c>
       <c r="P7" t="n">
-        <v>344.0382140808499</v>
+        <v>344.0262618867363</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15529,7 +15569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H371"/>
+  <dimension ref="A1:H372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30039,6 +30079,48 @@
         </is>
       </c>
     </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-36.77242217045265,175.7487588909091</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-36.77312029773251,175.74853863470173</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-36.773862504274305,175.7485804539926</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-36.77457276775283,175.74842446133655</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>-36.775293696476446,175.74838093115156</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>-36.77600112559478,175.74817391933462</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0170/nzd0170.xlsx
+++ b/data/nzd0170/nzd0170.xlsx
@@ -15111,13 +15111,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0631</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0862</v>
+        <v>0.1139</v>
       </c>
       <c r="I2" t="n">
         <v>0.3325083919465568</v>
@@ -15189,13 +15189,13 @@
         <v>0.2000394498273553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0828</v>
+        <v>0.0886</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1155</v>
+        <v>0.1429</v>
       </c>
       <c r="I3" t="n">
         <v>0.4148064063050359</v>
@@ -15267,13 +15267,13 @@
         <v>0.4000788996528941</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.0868</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1059</v>
+        <v>0.1355</v>
       </c>
       <c r="I4" t="n">
         <v>0.2483968254906657</v>
@@ -15345,13 +15345,13 @@
         <v>0.6000318641825007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.145</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0843</v>
+        <v>0.1098</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1268</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.2439496222712938</v>
@@ -15423,13 +15423,13 @@
         <v>0.8000713140098442</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0631</v>
+        <v>0.0743</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0813</v>
+        <v>0.1126</v>
       </c>
       <c r="I6" t="n">
         <v>0.2654007820015769</v>
@@ -15501,13 +15501,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.0677</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0936</v>
+        <v>0.1287</v>
       </c>
       <c r="I7" t="n">
         <v>0.2285401103879321</v>
